--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3378.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3378.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.256377531355101</v>
+        <v>5.055200099945068</v>
       </c>
       <c r="B1">
-        <v>2.58300365113619</v>
+        <v>3.735349178314209</v>
       </c>
       <c r="C1">
-        <v>3.920115596557764</v>
+        <v>2.017575263977051</v>
       </c>
       <c r="D1">
-        <v>3.745739915275859</v>
+        <v>1.607144713401794</v>
       </c>
       <c r="E1">
-        <v>1.15022411334885</v>
+        <v>1.478622555732727</v>
       </c>
     </row>
   </sheetData>
